--- a/analysis - final (i think).xlsx
+++ b/analysis - final (i think).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-ssoetomo\Documents\GitHub\Poyoarya.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJS\Documents\GitHub\Poyoarya.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27963,11 +27963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219368008"/>
-        <c:axId val="219366440"/>
+        <c:axId val="-1733930720"/>
+        <c:axId val="-1733923104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219368008"/>
+        <c:axId val="-1733930720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28079,12 +28079,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219366440"/>
+        <c:crossAx val="-1733923104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219366440"/>
+        <c:axId val="-1733923104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28197,7 +28197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219368008"/>
+        <c:crossAx val="-1733930720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -31124,11 +31124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370911848"/>
-        <c:axId val="370911456"/>
+        <c:axId val="-1733930176"/>
+        <c:axId val="-1733922016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370911848"/>
+        <c:axId val="-1733930176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31241,12 +31241,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370911456"/>
+        <c:crossAx val="-1733922016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370911456"/>
+        <c:axId val="-1733922016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31359,7 +31359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370911848"/>
+        <c:crossAx val="-1733930176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -31723,11 +31723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370912632"/>
-        <c:axId val="5916720"/>
+        <c:axId val="-1733925280"/>
+        <c:axId val="-1733929632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370912632"/>
+        <c:axId val="-1733925280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31784,12 +31784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5916720"/>
+        <c:crossAx val="-1733929632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5916720"/>
+        <c:axId val="-1733929632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31846,7 +31846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370912632"/>
+        <c:crossAx val="-1733925280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33921,10 +33921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2188"/>
+  <dimension ref="A1:U2188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33943,7 +33943,7 @@
     <col min="12" max="12" width="3.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>458</v>
       </c>
@@ -33980,7 +33980,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34008,8 +34008,12 @@
       <c r="K2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="str">
+        <f>CONCATENATE("'", J2,"'")</f>
+        <v>'STA'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34037,8 +34041,12 @@
       <c r="K3">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U61" si="0">CONCATENATE("'", J3,"'")</f>
+        <v>'ING'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34066,8 +34074,12 @@
       <c r="K4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="str">
+        <f t="shared" si="0"/>
+        <v>'VIK'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34095,8 +34107,12 @@
       <c r="K5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="str">
+        <f t="shared" si="0"/>
+        <v>'LIN'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34124,8 +34140,12 @@
       <c r="K6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>'DAL'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -34153,8 +34173,12 @@
       <c r="K7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>'STE'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34182,8 +34206,12 @@
       <c r="K8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="str">
+        <f t="shared" si="0"/>
+        <v>'TER'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34211,8 +34239,12 @@
       <c r="K9">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="str">
+        <f t="shared" si="0"/>
+        <v>'AND'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34240,8 +34272,12 @@
       <c r="K10">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="str">
+        <f t="shared" si="0"/>
+        <v>'ILL'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34269,8 +34305,12 @@
       <c r="K11">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="str">
+        <f t="shared" si="0"/>
+        <v>'LIG'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34298,8 +34338,12 @@
       <c r="K12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="str">
+        <f t="shared" si="0"/>
+        <v>'BER'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34327,8 +34371,12 @@
       <c r="K13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="str">
+        <f t="shared" si="0"/>
+        <v>'UND'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34356,8 +34404,12 @@
       <c r="K14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="str">
+        <f t="shared" si="0"/>
+        <v>'LAN'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34385,8 +34437,12 @@
       <c r="K15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" t="str">
+        <f t="shared" si="0"/>
+        <v>'MAR'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34414,8 +34470,12 @@
       <c r="K16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U16" t="str">
+        <f t="shared" si="0"/>
+        <v>'AST'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -34443,8 +34503,12 @@
       <c r="K17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U17" t="str">
+        <f t="shared" si="0"/>
+        <v>'ERA'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -34472,8 +34536,12 @@
       <c r="K18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U18" t="str">
+        <f t="shared" si="0"/>
+        <v>'ISK'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -34501,8 +34569,12 @@
       <c r="K19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U19" t="str">
+        <f t="shared" si="0"/>
+        <v>'NGE'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -34530,8 +34602,12 @@
       <c r="K20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U20" t="str">
+        <f t="shared" si="0"/>
+        <v>'TEN'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -34559,8 +34635,12 @@
       <c r="K21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U21" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOR'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -34588,8 +34668,12 @@
       <c r="K22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U22" t="str">
+        <f t="shared" si="0"/>
+        <v>'TTE'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -34617,8 +34701,12 @@
       <c r="K23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U23" t="str">
+        <f t="shared" si="0"/>
+        <v>'KEN'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -34646,8 +34734,12 @@
       <c r="K24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U24" t="str">
+        <f t="shared" si="0"/>
+        <v>'RAN'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -34675,8 +34767,12 @@
       <c r="K25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U25" t="str">
+        <f t="shared" si="0"/>
+        <v>'REN'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -34704,8 +34800,12 @@
       <c r="K26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U26" t="str">
+        <f t="shared" si="0"/>
+        <v>'ARE'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -34733,8 +34833,12 @@
       <c r="K27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U27" t="str">
+        <f t="shared" si="0"/>
+        <v>'IND'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -34762,8 +34866,12 @@
       <c r="K28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U28" t="str">
+        <f t="shared" si="0"/>
+        <v>'IST'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -34791,8 +34899,12 @@
       <c r="K29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U29" t="str">
+        <f t="shared" si="0"/>
+        <v>'LLA'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>29</v>
       </c>
@@ -34811,8 +34923,12 @@
       <c r="K30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U30" t="str">
+        <f t="shared" si="0"/>
+        <v>'MEN'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>30</v>
       </c>
@@ -34831,8 +34947,12 @@
       <c r="K31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U31" t="str">
+        <f t="shared" si="0"/>
+        <v>'NOR'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>31</v>
       </c>
@@ -34851,8 +34971,12 @@
       <c r="K32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U32" t="str">
+        <f t="shared" si="0"/>
+        <v>'OLM'</v>
+      </c>
+    </row>
+    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>32</v>
       </c>
@@ -34871,8 +34995,12 @@
       <c r="K33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U33" t="str">
+        <f t="shared" si="0"/>
+        <v>'RIK'</v>
+      </c>
+    </row>
+    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>33</v>
       </c>
@@ -34891,8 +35019,12 @@
       <c r="K34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U34" t="str">
+        <f t="shared" si="0"/>
+        <v>'TRO'</v>
+      </c>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>34</v>
       </c>
@@ -34911,8 +35043,12 @@
       <c r="K35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U35" t="str">
+        <f t="shared" si="0"/>
+        <v>'ULL'</v>
+      </c>
+    </row>
+    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>35</v>
       </c>
@@ -34931,8 +35067,12 @@
       <c r="K36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U36" t="str">
+        <f t="shared" si="0"/>
+        <v>'ÄTT'</v>
+      </c>
+    </row>
+    <row r="37" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>36</v>
       </c>
@@ -34951,8 +35091,12 @@
       <c r="K37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U37" t="str">
+        <f t="shared" si="0"/>
+        <v>'ALL'</v>
+      </c>
+    </row>
+    <row r="38" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>37</v>
       </c>
@@ -34971,8 +35115,12 @@
       <c r="K38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U38" t="str">
+        <f t="shared" si="0"/>
+        <v>'ATT'</v>
+      </c>
+    </row>
+    <row r="39" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>38</v>
       </c>
@@ -34991,8 +35139,12 @@
       <c r="K39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U39" t="str">
+        <f t="shared" si="0"/>
+        <v>'IDE'</v>
+      </c>
+    </row>
+    <row r="40" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>39</v>
       </c>
@@ -35011,8 +35163,12 @@
       <c r="K40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U40" t="str">
+        <f t="shared" si="0"/>
+        <v>'NES'</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>40</v>
       </c>
@@ -35031,8 +35187,12 @@
       <c r="K41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U41" t="str">
+        <f t="shared" si="0"/>
+        <v>'ORD'</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>41</v>
       </c>
@@ -35051,8 +35211,12 @@
       <c r="K42">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U42" t="str">
+        <f t="shared" si="0"/>
+        <v>'STI'</v>
+      </c>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>42</v>
       </c>
@@ -35071,8 +35235,12 @@
       <c r="K43">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U43" t="str">
+        <f t="shared" si="0"/>
+        <v>'STR'</v>
+      </c>
+    </row>
+    <row r="44" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>43</v>
       </c>
@@ -35091,8 +35259,12 @@
       <c r="K44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U44" t="str">
+        <f t="shared" si="0"/>
+        <v>'TRI'</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>44</v>
       </c>
@@ -35111,8 +35283,12 @@
       <c r="K45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U45" t="str">
+        <f t="shared" si="0"/>
+        <v>'TTA'</v>
+      </c>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>45</v>
       </c>
@@ -35131,8 +35307,12 @@
       <c r="K46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U46" t="str">
+        <f t="shared" si="0"/>
+        <v>'VAR'</v>
+      </c>
+    </row>
+    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>46</v>
       </c>
@@ -35151,8 +35331,12 @@
       <c r="K47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U47" t="str">
+        <f t="shared" si="0"/>
+        <v>'VER'</v>
+      </c>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>47</v>
       </c>
@@ -35171,8 +35355,12 @@
       <c r="K48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U48" t="str">
+        <f t="shared" si="0"/>
+        <v>'GRA'</v>
+      </c>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>48</v>
       </c>
@@ -35191,8 +35379,12 @@
       <c r="K49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U49" t="str">
+        <f t="shared" si="0"/>
+        <v>'HOL'</v>
+      </c>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>49</v>
       </c>
@@ -35211,8 +35403,12 @@
       <c r="K50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U50" t="str">
+        <f t="shared" si="0"/>
+        <v>'KAR'</v>
+      </c>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>50</v>
       </c>
@@ -35231,8 +35427,12 @@
       <c r="K51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U51" t="str">
+        <f t="shared" si="0"/>
+        <v>'KÄR'</v>
+      </c>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>51</v>
       </c>
@@ -35251,8 +35451,12 @@
       <c r="K52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U52" t="str">
+        <f t="shared" si="0"/>
+        <v>'LAR'</v>
+      </c>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>52</v>
       </c>
@@ -35271,8 +35475,12 @@
       <c r="K53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U53" t="str">
+        <f t="shared" si="0"/>
+        <v>'LEN'</v>
+      </c>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>53</v>
       </c>
@@ -35291,8 +35499,12 @@
       <c r="K54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U54" t="str">
+        <f t="shared" si="0"/>
+        <v>'LLE'</v>
+      </c>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>54</v>
       </c>
@@ -35311,8 +35523,12 @@
       <c r="K55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U55" t="str">
+        <f t="shared" si="0"/>
+        <v>'LLI'</v>
+      </c>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>55</v>
       </c>
@@ -35331,8 +35547,12 @@
       <c r="K56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U56" t="str">
+        <f t="shared" si="0"/>
+        <v>'NDE'</v>
+      </c>
+    </row>
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>56</v>
       </c>
@@ -35351,8 +35571,12 @@
       <c r="K57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U57" t="str">
+        <f t="shared" si="0"/>
+        <v>'RED'</v>
+      </c>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>57</v>
       </c>
@@ -35371,8 +35595,12 @@
       <c r="K58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U58" t="str">
+        <f t="shared" si="0"/>
+        <v>'SJÖ'</v>
+      </c>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>58</v>
       </c>
@@ -35391,8 +35619,12 @@
       <c r="K59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U59" t="str">
+        <f t="shared" si="0"/>
+        <v>'SKÄ'</v>
+      </c>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>59</v>
       </c>
@@ -35411,8 +35643,12 @@
       <c r="K60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U60" t="str">
+        <f t="shared" si="0"/>
+        <v>'TIG'</v>
+      </c>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>60</v>
       </c>
@@ -35431,8 +35667,12 @@
       <c r="K61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="U61" t="str">
+        <f t="shared" si="0"/>
+        <v>'TRA'</v>
+      </c>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>61</v>
       </c>
@@ -35452,7 +35692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>62</v>
       </c>
@@ -35472,7 +35712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>63</v>
       </c>
